--- a/tests/expected_results/result_test_write_results_all_missing_month.xlsx
+++ b/tests/expected_results/result_test_write_results_all_missing_month.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2542" uniqueCount="33">
   <si>
     <t xml:space="preserve">Plattform</t>
   </si>
@@ -256,7 +256,7 @@
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.29"/>
@@ -22747,7 +22747,7 @@
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.29"/>
@@ -25103,13 +25103,13 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.29"/>
@@ -25541,16 +25541,16 @@
         <v>19.37</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>15</v>
+      <c r="C12" s="1" t="n">
+        <v>1385.29</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>111.79</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>-39958.7</v>
